--- a/F_dataset/DUD-E/WEE1/WEE1_prepare/WEE1_inactive.xlsx
+++ b/F_dataset/DUD-E/WEE1/WEE1_prepare/WEE1_inactive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4943,1266 +4943,6 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>CHEMBL384293</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)c2c1c(-c1cccc(-c3ccccc3)c1)cc1[nH]c3ccc(O)cc3c21</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)c2c1c(-c1cccc(-c3ccccc3)c1)cc1[nH]c3ccc(O)cc3c21</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>404.43</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2</v>
-      </c>
-      <c r="K78" t="n">
-        <v>6</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5</v>
-      </c>
-      <c r="M78" t="n">
-        <v>82.19</v>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q78" t="n">
-        <v>40000</v>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>CHEMBL864855</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>Inhibition of human Wee1 in presence of 9.5 uM ATP</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>CHEMBL4528675</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>535.55</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>7</v>
-      </c>
-      <c r="J79" t="n">
-        <v>7</v>
-      </c>
-      <c r="K79" t="n">
-        <v>5</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4</v>
-      </c>
-      <c r="M79" t="n">
-        <v>107.06</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q79" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>CHEMBL4366639</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>Inhibition of human WEE1 at 100 nM using MBP as substrate by [gamma-33P]-ATP assay</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>CHEMBL4207014</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>405.44</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3</v>
-      </c>
-      <c r="K80" t="n">
-        <v>5</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5</v>
-      </c>
-      <c r="M80" t="n">
-        <v>132.44</v>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q80" t="n">
-        <v>1</v>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>CHEMBL4191232</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human Wee1 (214 to end residues) at 1 uM using LSNLYHQGKFLQTFCGSPLYRRR as substrate after 40 mins in presence of [gamma-33P]ATP by scintillation counting method</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>CHEMBL3628627</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1cccc(Nc2nccc(-c3sc(N4CCOCC4)nc3-c3cccc(NS(=O)(=O)c4c(F)cccc4F)c3)n2)c1</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1cccc(Nc2nccc(-c3sc(N4CCOCC4)nc3-c3cccc(NS(=O)(=O)c4c(F)cccc4F)c3)n2)c1</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>684.77</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>9</v>
-      </c>
-      <c r="K81" t="n">
-        <v>6</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5</v>
-      </c>
-      <c r="M81" t="n">
-        <v>143.48</v>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q81" t="n">
-        <v>-33.13</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>CHEMBL3631623</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>CHEMBL2402081</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>432.46</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>6</v>
-      </c>
-      <c r="J82" t="n">
-        <v>4</v>
-      </c>
-      <c r="K82" t="n">
-        <v>5</v>
-      </c>
-      <c r="L82" t="n">
-        <v>4</v>
-      </c>
-      <c r="M82" t="n">
-        <v>84.97</v>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q82" t="n">
-        <v>11</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>CHEMBL2405481</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>CHEMBL3815093</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>CNS(=O)(=O)c1ccc(N(C)C)c(Nc2ncnc3cc(OC)c(OC)cc23)c1</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>CNS(=O)(=O)c1ccc(N(C)C)c(Nc2ncnc3cc(OC)c(OC)cc23)c1</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>417.49</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>8</v>
-      </c>
-      <c r="J83" t="n">
-        <v>7</v>
-      </c>
-      <c r="K83" t="n">
-        <v>3</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3</v>
-      </c>
-      <c r="M83" t="n">
-        <v>105.68</v>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>CHEMBL3816877</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>Inhibition of human WEE1 at 1 uM using MBP substrate</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>CHEMBL166031</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>352.39</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>4</v>
-      </c>
-      <c r="K84" t="n">
-        <v>3</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3</v>
-      </c>
-      <c r="M84" t="n">
-        <v>89.28</v>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q84" t="n">
-        <v>-4.91</v>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>CHEMBL3631623</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>CHEMBL4459587</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>C=CS(=O)(=O)Nc1ccc(Cc2ccc3ccccc3c2)cc1</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>C=CS(=O)(=O)Nc1ccc(Cc2ccc3ccccc3c2)cc1</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>323.42</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>5</v>
-      </c>
-      <c r="K85" t="n">
-        <v>3</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3</v>
-      </c>
-      <c r="M85" t="n">
-        <v>46.17</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
-        <v>-4</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>CHEMBL4378983</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human Wee1 (214 to end residues) at 10 uM using LSNLYHQGKFLQTFCGSPLYRRR as substrate measured after 40 mins in presence of [gamm33P]ATP by scintillation counting method relative to control</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>CHEMBL4548580</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>CN(C)C(=O)c1cc2cnc(Nc3ccc(NC(=O)CCCCCCCN=C=S)cc3)nc2n1C1CCCC1</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>CN(C)C(=O)c1cc2cnc(Nc3ccc(NC(=O)CCCCCCCN=C=S)cc3)nc2n1C1CCCC1</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>547.73</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>13</v>
-      </c>
-      <c r="K86" t="n">
-        <v>4</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3</v>
-      </c>
-      <c r="M86" t="n">
-        <v>104.51</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q86" t="n">
-        <v>8</v>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>CHEMBL4377975</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human Wee1 (214 to end residues) at 1 uM using LSNLYHQGKFLQTFCGSPLYRRR as substrate measured after 40 mins in presence of [gamma33P]ATP by scintillation counting method relative to control</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>CHEMBL2012574</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>337.35</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3</v>
-      </c>
-      <c r="J87" t="n">
-        <v>5</v>
-      </c>
-      <c r="K87" t="n">
-        <v>3</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3</v>
-      </c>
-      <c r="M87" t="n">
-        <v>53.07</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q87" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>CHEMBL2015527</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>CHEMBL2170414</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccc(Nc2ncc(F)c(Nc3ccccc3Cl)n2)cc1</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccc(Nc2ncc(F)c(Nc3ccccc3Cl)n2)cc1</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>357.78</v>
-      </c>
-      <c r="H88" t="n">
-        <v>3</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>5</v>
-      </c>
-      <c r="K88" t="n">
-        <v>3</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3</v>
-      </c>
-      <c r="M88" t="n">
-        <v>92.93000000000001</v>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q88" t="n">
-        <v>16</v>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>CHEMBL2174406</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 at 1 uM by 33P kinase hotspot assay</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>CHEMBL3628628</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>COCCNC(=O)c1ccc2c(c1)nc(-c1cnc(-c3ccc(Cl)cc3)[nH]1)n2CCOC</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>COCCNC(=O)c1ccc2c(c1)nc(-c1cnc(-c3ccc(Cl)cc3)[nH]1)n2CCOC</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>453.93</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>9</v>
-      </c>
-      <c r="K89" t="n">
-        <v>4</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4</v>
-      </c>
-      <c r="M89" t="n">
-        <v>94.06</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q89" t="n">
-        <v>-30.02</v>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>CHEMBL3631623</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>CHEMBL4084955</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>c1cc(-c2c[nH]c3cnccc23)ccn1</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>c1cc(-c2c[nH]c3cnccc23)ccn1</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>195.22</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" t="n">
-        <v>3</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3</v>
-      </c>
-      <c r="M90" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q90" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>CHEMBL4034515</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 Lysine 2 labelling site (unknown origin) at 10 uM</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>CHEMBL3746293</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Cc1c(-c2cc(Nc3cc4n(n3)CCN(C)C4)c(=O)[nH]n2)ccc(F)c1NC(=O)c1cc2ccccc2s1</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Cc1c(-c2cc(Nc3cc4n(n3)CCN(C)C4)c(=O)[nH]n2)ccc(F)c1NC(=O)c1cc2ccccc2s1</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>529.6</v>
-      </c>
-      <c r="H91" t="n">
-        <v>3</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6</v>
-      </c>
-      <c r="J91" t="n">
-        <v>5</v>
-      </c>
-      <c r="K91" t="n">
-        <v>6</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5</v>
-      </c>
-      <c r="M91" t="n">
-        <v>107.94</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q91" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>CHEMBL3751119</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 1 uM</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>CHEMBL5081774</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>[2H]C([2H])([2H])C1(C([2H])([2H])[2H])Cn2nc(-c3ccc(F)cn3)c(-c3ccnc4[nH]ncc34)c2CO1</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>[2H]C([2H])([2H])C1(C([2H])([2H])[2H])Cn2nc(-c3ccc(F)cn3)c(-c3ccnc4[nH]ncc34)c2CO1</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>370.42</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>5</v>
-      </c>
-      <c r="J92" t="n">
-        <v>4</v>
-      </c>
-      <c r="K92" t="n">
-        <v>5</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4</v>
-      </c>
-      <c r="M92" t="n">
-        <v>81.51000000000001</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q92" t="n">
-        <v>10</v>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>CHEMBL5059363</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>Wee1(h) Kinase panel</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
